--- a/02_clase/data/calidad_aire_latinoamerica.xlsx
+++ b/02_clase/data/calidad_aire_latinoamerica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sara/Desktop/GITHUB/estacion_estadistica/02_clase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3732A3E1-ADAC-1B4A-B384-3CE193CE013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E565A9-ED85-7E4B-9E83-49EBC6D1D8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -295,6 +295,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -632,7 +633,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="30" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
